--- a/Code/Results/Cases/Case_7_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83915805530926</v>
+        <v>20.98543163008409</v>
       </c>
       <c r="C2">
-        <v>14.23807492731905</v>
+        <v>14.46046826115461</v>
       </c>
       <c r="D2">
-        <v>2.853500788209701</v>
+        <v>6.199130541836356</v>
       </c>
       <c r="E2">
-        <v>6.924333843088126</v>
+        <v>8.389122180928329</v>
       </c>
       <c r="F2">
-        <v>39.61902282551656</v>
+        <v>22.03490725543938</v>
       </c>
       <c r="G2">
-        <v>2.101744143603998</v>
+        <v>2.085306241680521</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.995775832564254</v>
+        <v>5.647205497098734</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.57824691480416</v>
+        <v>15.1464207845363</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.52553032594533</v>
+        <v>15.61782592620763</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.35760538613923</v>
+        <v>19.58750385452869</v>
       </c>
       <c r="C3">
-        <v>13.23065964921651</v>
+        <v>13.57538552233769</v>
       </c>
       <c r="D3">
-        <v>2.829180038634921</v>
+        <v>6.008451963075581</v>
       </c>
       <c r="E3">
-        <v>6.880483747837094</v>
+        <v>8.296982157328415</v>
       </c>
       <c r="F3">
-        <v>38.22559362642554</v>
+        <v>21.76000366701741</v>
       </c>
       <c r="G3">
-        <v>2.112632245539039</v>
+        <v>2.091428210825452</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.014444764542622</v>
+        <v>5.702654522284953</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.87547312241124</v>
+        <v>14.31578794707413</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.5753502927789</v>
+        <v>15.59629551067871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.40152521549838</v>
+        <v>18.6789663878415</v>
       </c>
       <c r="C4">
-        <v>12.57988679482287</v>
+        <v>13.00241721638827</v>
       </c>
       <c r="D4">
-        <v>2.814869059876321</v>
+        <v>5.890390295178264</v>
       </c>
       <c r="E4">
-        <v>6.856840062295577</v>
+        <v>8.244934886449871</v>
       </c>
       <c r="F4">
-        <v>37.38564568689217</v>
+        <v>21.61743535797323</v>
       </c>
       <c r="G4">
-        <v>2.119465573534919</v>
+        <v>2.095297333551795</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.028451096512886</v>
+        <v>5.739291619038371</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.43688203521617</v>
+        <v>13.78480861607703</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.00687471325531</v>
+        <v>15.60399927387046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0001049261037</v>
+        <v>18.2960333865959</v>
       </c>
       <c r="C5">
-        <v>12.30646527228114</v>
+        <v>12.76154072426135</v>
       </c>
       <c r="D5">
-        <v>2.809189655151499</v>
+        <v>5.842093589563433</v>
       </c>
       <c r="E5">
-        <v>6.848010474696796</v>
+        <v>8.224855276726295</v>
       </c>
       <c r="F5">
-        <v>37.04748678929985</v>
+        <v>21.56575954773497</v>
       </c>
       <c r="G5">
-        <v>2.122290093471223</v>
+        <v>2.096902556952218</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.034776998235439</v>
+        <v>5.754858267273119</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.2565734188517</v>
+        <v>13.56334068244819</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.77905200433332</v>
+        <v>15.61215306629931</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.93273231166256</v>
+        <v>18.23167878625257</v>
       </c>
       <c r="C6">
-        <v>12.26056346180222</v>
+        <v>12.72109865675581</v>
       </c>
       <c r="D6">
-        <v>2.808255702603779</v>
+        <v>5.834064642880401</v>
       </c>
       <c r="E6">
-        <v>6.846592407961016</v>
+        <v>8.221589039734578</v>
       </c>
       <c r="F6">
-        <v>36.99159131012787</v>
+        <v>21.55756120296452</v>
       </c>
       <c r="G6">
-        <v>2.122761585874339</v>
+        <v>2.097170848856466</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.035864148791622</v>
+        <v>5.757481142628734</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.2265446407081</v>
+        <v>13.52626486130441</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.7414564053343</v>
+        <v>15.61380254782753</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.39615951342178</v>
+        <v>18.67385352020852</v>
       </c>
       <c r="C7">
-        <v>12.5762328052149</v>
+        <v>12.99919851976092</v>
       </c>
       <c r="D7">
-        <v>2.814791852802682</v>
+        <v>5.889739615415509</v>
       </c>
       <c r="E7">
-        <v>6.856717747872092</v>
+        <v>8.244659522777667</v>
       </c>
       <c r="F7">
-        <v>37.38106816683357</v>
+        <v>21.61671268224554</v>
       </c>
       <c r="G7">
-        <v>2.11950350113168</v>
+        <v>2.095318865616363</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.02853393396905</v>
+        <v>5.739498996939005</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.43445642687053</v>
+        <v>13.78184215768066</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.00378657286597</v>
+        <v>15.60408926521996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.33785788712828</v>
+        <v>20.51380092177924</v>
       </c>
       <c r="C8">
-        <v>13.89732659632361</v>
+        <v>14.16143562788346</v>
       </c>
       <c r="D8">
-        <v>2.844983159129448</v>
+        <v>6.133624531860709</v>
       </c>
       <c r="E8">
-        <v>6.908521620493488</v>
+        <v>8.356408363491283</v>
       </c>
       <c r="F8">
-        <v>39.13543452449061</v>
+        <v>21.93458143504988</v>
       </c>
       <c r="G8">
-        <v>2.105469321553419</v>
+        <v>2.087394724758278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.00167165229469</v>
+        <v>5.66577723309741</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.33750974722953</v>
+        <v>14.86446777831926</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.19485049456744</v>
+        <v>15.60591276133517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78475252062556</v>
+        <v>23.72709182494822</v>
       </c>
       <c r="C9">
-        <v>16.23846527339403</v>
+        <v>16.20563059049679</v>
       </c>
       <c r="D9">
-        <v>2.909368408548061</v>
+        <v>6.601606417005566</v>
       </c>
       <c r="E9">
-        <v>7.037046103358474</v>
+        <v>8.61174836446023</v>
       </c>
       <c r="F9">
-        <v>42.6931911431682</v>
+        <v>22.77248644127113</v>
       </c>
       <c r="G9">
-        <v>2.078989644849137</v>
+        <v>2.072690947042647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.97021891397629</v>
+        <v>5.542498349804411</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.11785442745478</v>
+        <v>16.89783123216244</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.64673900562758</v>
+        <v>15.78617831560347</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.10902792679932</v>
+        <v>25.85236688860784</v>
       </c>
       <c r="C10">
-        <v>17.8156414760611</v>
+        <v>17.56443018509751</v>
       </c>
       <c r="D10">
-        <v>2.960289232437801</v>
+        <v>6.936254700392301</v>
       </c>
       <c r="E10">
-        <v>7.149230350578837</v>
+        <v>8.821707532909292</v>
       </c>
       <c r="F10">
-        <v>45.37438173457324</v>
+        <v>23.52617486579638</v>
       </c>
       <c r="G10">
-        <v>2.059962899943389</v>
+        <v>2.062339285816329</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.961632658523495</v>
+        <v>5.466016407282159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.67097451189668</v>
+        <v>18.38793157099213</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.51854963625551</v>
+        <v>16.04020567318891</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.12424302855595</v>
+        <v>26.76927015638104</v>
       </c>
       <c r="C11">
-        <v>18.50442392658122</v>
+        <v>18.15179671199008</v>
       </c>
       <c r="D11">
-        <v>2.984381979449794</v>
+        <v>7.08600033842619</v>
       </c>
       <c r="E11">
-        <v>7.204444385775983</v>
+        <v>8.922120471561716</v>
       </c>
       <c r="F11">
-        <v>46.60936554472793</v>
+        <v>23.90017671414685</v>
       </c>
       <c r="G11">
-        <v>2.051346950315696</v>
+        <v>2.05771412461019</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.961274340480892</v>
+        <v>5.434559967876224</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.34897267559527</v>
+        <v>19.03169946417153</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.38625505585496</v>
+        <v>16.18489315368964</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.50291222920885</v>
+        <v>27.10940590811735</v>
       </c>
       <c r="C12">
-        <v>18.76133911897881</v>
+        <v>18.36982822051702</v>
       </c>
       <c r="D12">
-        <v>2.993654212410631</v>
+        <v>7.142313207228268</v>
       </c>
       <c r="E12">
-        <v>7.225983562313132</v>
+        <v>8.960851373590836</v>
       </c>
       <c r="F12">
-        <v>47.0793923954022</v>
+        <v>24.04635142341331</v>
       </c>
       <c r="G12">
-        <v>2.048084888391046</v>
+        <v>2.055973515013873</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.961685872675306</v>
+        <v>5.423153864919046</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.60181172419904</v>
+        <v>19.27064397744809</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.71731590844918</v>
+        <v>16.24407550396088</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42161077786259</v>
+        <v>27.03646464246252</v>
       </c>
       <c r="C13">
-        <v>18.70617815287942</v>
+        <v>18.32306595444706</v>
       </c>
       <c r="D13">
-        <v>2.991650370489262</v>
+        <v>7.130203175647913</v>
       </c>
       <c r="E13">
-        <v>7.22131614903195</v>
+        <v>8.952478516298502</v>
       </c>
       <c r="F13">
-        <v>46.97805470228142</v>
+        <v>24.01466679185627</v>
       </c>
       <c r="G13">
-        <v>2.048787492378939</v>
+        <v>2.056347924845218</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.96157226973513</v>
+        <v>5.425587436514926</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.54752856115104</v>
+        <v>19.21939700799356</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.64590256783534</v>
+        <v>16.23113108618377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.15551026735522</v>
+        <v>26.79739454848544</v>
       </c>
       <c r="C14">
-        <v>18.52563758319044</v>
+        <v>18.16982209639401</v>
       </c>
       <c r="D14">
-        <v>2.985141728713256</v>
+        <v>7.090641278445255</v>
       </c>
       <c r="E14">
-        <v>7.206203601787175</v>
+        <v>8.925292710856317</v>
       </c>
       <c r="F14">
-        <v>46.64798619677803</v>
+        <v>23.91211107688665</v>
       </c>
       <c r="G14">
-        <v>2.051078597633124</v>
+        <v>2.05757071372125</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.961297003430567</v>
+        <v>5.433611286092988</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.36985092942891</v>
+        <v>19.0514541100165</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.41344081474993</v>
+        <v>16.18967297704403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.99177355849559</v>
+        <v>26.65003879170959</v>
       </c>
       <c r="C15">
-        <v>18.41454858547878</v>
+        <v>18.07538499053694</v>
       </c>
       <c r="D15">
-        <v>2.981174893401439</v>
+        <v>7.066356416404491</v>
       </c>
       <c r="E15">
-        <v>7.197029821256333</v>
+        <v>8.908732714546666</v>
       </c>
       <c r="F15">
-        <v>46.44612449913589</v>
+        <v>23.84988695929008</v>
       </c>
       <c r="G15">
-        <v>2.052481883856557</v>
+        <v>2.05832108087261</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.96120082883799</v>
+        <v>5.43859280917427</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.2605160594625</v>
+        <v>18.94795641556811</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.27137989714987</v>
+        <v>16.16485649815401</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.04185741039435</v>
+        <v>25.79144945393185</v>
       </c>
       <c r="C16">
-        <v>17.77006838426839</v>
+        <v>17.52542797178764</v>
       </c>
       <c r="D16">
-        <v>2.958734631671961</v>
+        <v>6.926415303887305</v>
       </c>
       <c r="E16">
-        <v>7.145708566687061</v>
+        <v>8.815244096265234</v>
       </c>
       <c r="F16">
-        <v>45.29399218651385</v>
+        <v>23.50236589253424</v>
       </c>
       <c r="G16">
-        <v>2.060526348253223</v>
+        <v>2.062643136274858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.96173054136412</v>
+        <v>5.468141456412089</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.62610815583227</v>
+        <v>18.34517937043119</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.46218026417758</v>
+        <v>16.03135389186125</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44852099155073</v>
+        <v>25.25202239124213</v>
       </c>
       <c r="C17">
-        <v>17.3674981384195</v>
+        <v>17.18018898528894</v>
       </c>
       <c r="D17">
-        <v>2.945215939715641</v>
+        <v>6.839902211479024</v>
       </c>
       <c r="E17">
-        <v>7.115315477892866</v>
+        <v>8.759148522038901</v>
       </c>
       <c r="F17">
-        <v>44.59119899151613</v>
+        <v>23.29720322064719</v>
       </c>
       <c r="G17">
-        <v>2.065468065639747</v>
+        <v>2.065315216878263</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.962989279657606</v>
+        <v>5.487140729591362</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.22974763284045</v>
+        <v>17.96670954496264</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.96999718396811</v>
+        <v>15.95706446221935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10326703849676</v>
+        <v>24.93705561572761</v>
       </c>
       <c r="C18">
-        <v>17.1332365310286</v>
+        <v>16.97871909007914</v>
       </c>
       <c r="D18">
-        <v>2.937526649751812</v>
+        <v>6.789909745042467</v>
       </c>
       <c r="E18">
-        <v>7.098225747203148</v>
+        <v>8.727345076849288</v>
       </c>
       <c r="F18">
-        <v>44.18839472768103</v>
+        <v>23.18212731984287</v>
       </c>
       <c r="G18">
-        <v>2.06831445917028</v>
+        <v>2.066860098819289</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.964044749953689</v>
+        <v>5.498380863150514</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.99907371129273</v>
+        <v>17.74581112441737</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.68841916336338</v>
+        <v>15.91706565021513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.98567787114591</v>
+        <v>24.82960266181317</v>
       </c>
       <c r="C19">
-        <v>17.05344737804993</v>
+        <v>16.91000636344856</v>
       </c>
       <c r="D19">
-        <v>2.934937599162422</v>
+        <v>6.772944392531718</v>
       </c>
       <c r="E19">
-        <v>7.092505863017277</v>
+        <v>8.71665614204549</v>
       </c>
       <c r="F19">
-        <v>44.05225333287333</v>
+        <v>23.14366521800828</v>
       </c>
       <c r="G19">
-        <v>2.069279037977581</v>
+        <v>2.067384574151466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.964457979925833</v>
+        <v>5.502239453286408</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.92050245971743</v>
+        <v>17.67046505185176</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.59333813748304</v>
+        <v>15.90398526674174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.51209289389429</v>
+        <v>25.30993132116417</v>
       </c>
       <c r="C20">
-        <v>17.41063183770963</v>
+        <v>17.21723994932056</v>
       </c>
       <c r="D20">
-        <v>2.94664599535222</v>
+        <v>6.849136003662867</v>
       </c>
       <c r="E20">
-        <v>7.118510144496347</v>
+        <v>8.765072241757851</v>
       </c>
       <c r="F20">
-        <v>44.66586430836103</v>
+        <v>23.31873953655914</v>
       </c>
       <c r="G20">
-        <v>2.064941626936755</v>
+        <v>2.065029952824249</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.962820722277379</v>
+        <v>5.485085726068751</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.27221874066253</v>
+        <v>18.00733033943111</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.02223351416699</v>
+        <v>15.96468858152341</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.23382460679576</v>
+        <v>26.86780644387108</v>
       </c>
       <c r="C21">
-        <v>18.5787710681599</v>
+        <v>18.21495242225669</v>
       </c>
       <c r="D21">
-        <v>2.987049295994687</v>
+        <v>7.10227246949488</v>
       </c>
       <c r="E21">
-        <v>7.210625149107671</v>
+        <v>8.93325864457287</v>
       </c>
       <c r="F21">
-        <v>46.74486926457415</v>
+        <v>23.94211023071544</v>
       </c>
       <c r="G21">
-        <v>2.050405671542165</v>
+        <v>2.057211267033352</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.961362688614154</v>
+        <v>5.431240540039277</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.42214342795725</v>
+        <v>19.10091372350514</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.4816516092861</v>
+        <v>16.20172947039005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32559863867203</v>
+        <v>27.8447756077306</v>
       </c>
       <c r="C22">
-        <v>19.3195345646845</v>
+        <v>18.8414388469124</v>
       </c>
       <c r="D22">
-        <v>3.014332450553339</v>
+        <v>7.265411590479623</v>
       </c>
       <c r="E22">
-        <v>7.274521040321605</v>
+        <v>9.047298628820894</v>
       </c>
       <c r="F22">
-        <v>48.11756347960014</v>
+        <v>24.37605642119507</v>
       </c>
       <c r="G22">
-        <v>2.040906291929317</v>
+        <v>2.05216384256088</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.963619670290001</v>
+        <v>5.399011549010321</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.15103800151834</v>
+        <v>19.78747737285285</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.45004449668717</v>
+        <v>16.38233568027994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.7458577655849</v>
+        <v>27.32708372449213</v>
       </c>
       <c r="C23">
-        <v>18.92617353194699</v>
+        <v>18.50939894925447</v>
       </c>
       <c r="D23">
-        <v>2.999684646499631</v>
+        <v>7.178561657509672</v>
       </c>
       <c r="E23">
-        <v>7.240069886205027</v>
+        <v>8.986055582182154</v>
       </c>
       <c r="F23">
-        <v>47.38357109362965</v>
+        <v>24.14200234177702</v>
       </c>
       <c r="G23">
-        <v>2.045978077335235</v>
+        <v>2.054852454352486</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.962108020925934</v>
+        <v>5.415932459977738</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.7640141768025</v>
+        <v>19.4235988277437</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.93179162636872</v>
+        <v>16.28352888182494</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48336494352822</v>
+        <v>25.28376578616757</v>
       </c>
       <c r="C24">
-        <v>17.39113988733966</v>
+        <v>17.20049851586828</v>
       </c>
       <c r="D24">
-        <v>2.945999210441582</v>
+        <v>6.844962197577448</v>
       </c>
       <c r="E24">
-        <v>7.117064642893567</v>
+        <v>8.76239273699667</v>
       </c>
       <c r="F24">
-        <v>44.63210426453224</v>
+        <v>23.30899401897008</v>
       </c>
       <c r="G24">
-        <v>2.065179612885998</v>
+        <v>2.065158893615592</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.962895896323466</v>
+        <v>5.486013807104277</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.253026291862</v>
+        <v>17.98897599638181</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.99861316682216</v>
+        <v>15.96123328809384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.88976844851356</v>
+        <v>22.89956405484812</v>
       </c>
       <c r="C25">
-        <v>15.63093269767471</v>
+        <v>15.67780614040041</v>
       </c>
       <c r="D25">
-        <v>2.891355279278042</v>
+        <v>6.476427105844765</v>
       </c>
       <c r="E25">
-        <v>6.999260056732312</v>
+        <v>8.538761055950255</v>
       </c>
       <c r="F25">
-        <v>41.71883476927309</v>
+        <v>22.52200641029815</v>
       </c>
       <c r="G25">
-        <v>2.086061611345512</v>
+        <v>2.076585034827379</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.976300858566487</v>
+        <v>5.573461043205992</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.59091152239736</v>
+        <v>16.31845949572245</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.97118826346279</v>
+        <v>15.71702254455928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98543163008409</v>
+        <v>21.11485574723299</v>
       </c>
       <c r="C2">
-        <v>14.46046826115461</v>
+        <v>14.93928236987674</v>
       </c>
       <c r="D2">
-        <v>6.199130541836356</v>
+        <v>7.651490917740842</v>
       </c>
       <c r="E2">
-        <v>8.389122180928329</v>
+        <v>10.2628216267276</v>
       </c>
       <c r="F2">
-        <v>22.03490725543938</v>
+        <v>18.63936150268305</v>
       </c>
       <c r="G2">
-        <v>2.085306241680521</v>
+        <v>18.4253214890865</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.740801045976728</v>
       </c>
       <c r="J2">
-        <v>5.647205497098734</v>
+        <v>7.925651746468633</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.69821628498559</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.578548763151041</v>
       </c>
       <c r="M2">
-        <v>15.1464207845363</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.61782592620763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.71630542713801</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.47897357699299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.58750385452869</v>
+        <v>19.7792880485113</v>
       </c>
       <c r="C3">
-        <v>13.57538552233769</v>
+        <v>14.04053722591616</v>
       </c>
       <c r="D3">
-        <v>6.008451963075581</v>
+        <v>7.400769165132615</v>
       </c>
       <c r="E3">
-        <v>8.296982157328415</v>
+        <v>10.03231963731372</v>
       </c>
       <c r="F3">
-        <v>21.76000366701741</v>
+        <v>18.41833842447664</v>
       </c>
       <c r="G3">
-        <v>2.091428210825452</v>
+        <v>18.13717743706443</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.591779846174053</v>
       </c>
       <c r="J3">
-        <v>5.702654522284953</v>
+        <v>7.98920880185555</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.01392843965071</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.52136205179048</v>
       </c>
       <c r="M3">
-        <v>14.31578794707413</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.59629551067871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.82554267572574</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.50370773968314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6789663878415</v>
+        <v>18.91094786083077</v>
       </c>
       <c r="C4">
-        <v>13.00241721638827</v>
+        <v>13.45804120153859</v>
       </c>
       <c r="D4">
-        <v>5.890390295178264</v>
+        <v>7.242963342526318</v>
       </c>
       <c r="E4">
-        <v>8.244934886449871</v>
+        <v>9.88776942436262</v>
       </c>
       <c r="F4">
-        <v>21.61743535797323</v>
+        <v>18.2953741262783</v>
       </c>
       <c r="G4">
-        <v>2.095297333551795</v>
+        <v>17.9827226084674</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.728996903071998</v>
       </c>
       <c r="J4">
-        <v>5.739291619038371</v>
+        <v>8.033164971310105</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.21510158819855</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.48538981814132</v>
       </c>
       <c r="M4">
-        <v>13.78480861607703</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.60399927387046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.25062482054364</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.53043119359812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.2960333865959</v>
+        <v>18.54496376238784</v>
       </c>
       <c r="C5">
-        <v>12.76154072426135</v>
+        <v>13.21303002643384</v>
       </c>
       <c r="D5">
-        <v>5.842093589563433</v>
+        <v>7.177756721076473</v>
       </c>
       <c r="E5">
-        <v>8.224855276726295</v>
+        <v>9.828141737595201</v>
       </c>
       <c r="F5">
-        <v>21.56575954773497</v>
+        <v>18.2484340723176</v>
       </c>
       <c r="G5">
-        <v>2.096902556952218</v>
+        <v>17.92533340992194</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.78609958999479</v>
       </c>
       <c r="J5">
-        <v>5.754858267273119</v>
+        <v>8.052274368262081</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.29889633962881</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.470513126144116</v>
       </c>
       <c r="M5">
-        <v>13.56334068244819</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.61215306629931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.00942608289227</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.54410394519851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23167878625257</v>
+        <v>18.48346066138583</v>
       </c>
       <c r="C6">
-        <v>12.72109865675581</v>
+        <v>13.17188724306376</v>
       </c>
       <c r="D6">
-        <v>5.834064642880401</v>
+        <v>7.166877109081055</v>
       </c>
       <c r="E6">
-        <v>8.221589039734578</v>
+        <v>9.818198117743487</v>
       </c>
       <c r="F6">
-        <v>21.55756120296452</v>
+        <v>18.24082986120965</v>
       </c>
       <c r="G6">
-        <v>2.097170848856466</v>
+        <v>17.91613593388485</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.795653547313999</v>
       </c>
       <c r="J6">
-        <v>5.757481142628734</v>
+        <v>8.055518529648083</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.31291933902662</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.468029668201044</v>
       </c>
       <c r="M6">
-        <v>13.52626486130441</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.61380254782753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.96896174338908</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.54653889883306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67385352020852</v>
+        <v>18.9060611455351</v>
       </c>
       <c r="C7">
-        <v>12.99919851976092</v>
+        <v>13.45476771593777</v>
       </c>
       <c r="D7">
-        <v>5.889739615415509</v>
+        <v>7.242087485628031</v>
       </c>
       <c r="E7">
-        <v>8.244659522777667</v>
+        <v>9.886968138037991</v>
       </c>
       <c r="F7">
-        <v>21.61671268224554</v>
+        <v>18.29472830027399</v>
       </c>
       <c r="G7">
-        <v>2.095318865616363</v>
+        <v>17.98192630541385</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.729762187021293</v>
       </c>
       <c r="J7">
-        <v>5.739498996939005</v>
+        <v>8.033417896900596</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.21622435578201</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.4851900694553</v>
       </c>
       <c r="M7">
-        <v>13.78184215768066</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.60408926521996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.24739974494096</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.53060447852972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.51380092177924</v>
+        <v>20.66438041512905</v>
       </c>
       <c r="C8">
-        <v>14.16143562788346</v>
+        <v>14.63579503378414</v>
       </c>
       <c r="D8">
-        <v>6.133624531860709</v>
+        <v>7.56588439023185</v>
       </c>
       <c r="E8">
-        <v>8.356408363491283</v>
+        <v>10.18399322149361</v>
       </c>
       <c r="F8">
-        <v>21.93458143504988</v>
+        <v>18.56048901735389</v>
       </c>
       <c r="G8">
-        <v>2.087394724758278</v>
+        <v>18.32125692783797</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.669082684479841</v>
       </c>
       <c r="J8">
-        <v>5.66577723309741</v>
+        <v>7.946516009312261</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.80553575604371</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.559008119843561</v>
       </c>
       <c r="M8">
-        <v>14.86446777831926</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.60591276133517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.41504317851066</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.48503661915192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72709182494822</v>
+        <v>23.72933081846044</v>
       </c>
       <c r="C9">
-        <v>16.20563059049679</v>
+        <v>16.70640919553105</v>
       </c>
       <c r="D9">
-        <v>6.601606417005566</v>
+        <v>8.16741208215811</v>
       </c>
       <c r="E9">
-        <v>8.61174836446023</v>
+        <v>10.740981512849</v>
       </c>
       <c r="F9">
-        <v>22.77248644127113</v>
+        <v>19.18389405793805</v>
       </c>
       <c r="G9">
-        <v>2.072690947042647</v>
+        <v>19.16782211719464</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.170486637961232</v>
       </c>
       <c r="J9">
-        <v>5.542498349804411</v>
+        <v>7.817267216531238</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.05982318091302</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.697030904038051</v>
       </c>
       <c r="M9">
-        <v>16.89783123216244</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.78617831560347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.47876765002455</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.49243640029698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.85236688860784</v>
+        <v>25.7710002030765</v>
       </c>
       <c r="C10">
-        <v>17.56443018509751</v>
+        <v>18.07636339220256</v>
       </c>
       <c r="D10">
-        <v>6.936254700392301</v>
+        <v>8.513770648349904</v>
       </c>
       <c r="E10">
-        <v>8.821707532909292</v>
+        <v>10.98316206070262</v>
       </c>
       <c r="F10">
-        <v>23.52617486579638</v>
+        <v>19.55054589638885</v>
       </c>
       <c r="G10">
-        <v>2.062339285816329</v>
+        <v>19.71816200049521</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.507455126662502</v>
       </c>
       <c r="J10">
-        <v>5.466016407282159</v>
+        <v>7.720668910184491</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.515069888059884</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.744298774111369</v>
       </c>
       <c r="M10">
-        <v>18.38793157099213</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.04020567318891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.75586865512254</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.48681055651919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.76927015638104</v>
+        <v>26.84268168058324</v>
       </c>
       <c r="C11">
-        <v>18.15179671199008</v>
+        <v>18.66749002112569</v>
       </c>
       <c r="D11">
-        <v>7.08600033842619</v>
+        <v>8.052425501129548</v>
       </c>
       <c r="E11">
-        <v>8.922120471561716</v>
+        <v>9.900413061841942</v>
       </c>
       <c r="F11">
-        <v>23.90017671414685</v>
+        <v>18.3933621142271</v>
       </c>
       <c r="G11">
-        <v>2.05771412461019</v>
+        <v>18.3989234194847</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.261619133011656</v>
       </c>
       <c r="J11">
-        <v>5.434559967876224</v>
+        <v>7.425494944583566</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.982488309652576</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.423393824692643</v>
       </c>
       <c r="M11">
-        <v>19.03169946417153</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.18489315368964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.46751263354196</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.83020044469339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.10940590811735</v>
+        <v>27.3359507145247</v>
       </c>
       <c r="C12">
-        <v>18.36982822051702</v>
+        <v>18.88949396913987</v>
       </c>
       <c r="D12">
-        <v>7.142313207228268</v>
+        <v>7.594433192709084</v>
       </c>
       <c r="E12">
-        <v>8.960851373590836</v>
+        <v>9.100624573465405</v>
       </c>
       <c r="F12">
-        <v>24.04635142341331</v>
+        <v>17.32238040275612</v>
       </c>
       <c r="G12">
-        <v>2.055973515013873</v>
+        <v>17.13562839156181</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.418754449310159</v>
       </c>
       <c r="J12">
-        <v>5.423153864919046</v>
+        <v>7.193684172172718</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.676134781244549</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.278378428890228</v>
       </c>
       <c r="M12">
-        <v>19.27064397744809</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.24407550396088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.95088175306114</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.26610671363423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.03646464246252</v>
+        <v>27.43011639379091</v>
       </c>
       <c r="C13">
-        <v>18.32306595444706</v>
+        <v>18.8477280025212</v>
       </c>
       <c r="D13">
-        <v>7.130203175647913</v>
+        <v>7.105589668015891</v>
       </c>
       <c r="E13">
-        <v>8.952478516298502</v>
+        <v>8.509256523377985</v>
       </c>
       <c r="F13">
-        <v>24.01466679185627</v>
+        <v>16.24395884999562</v>
       </c>
       <c r="G13">
-        <v>2.056347924845218</v>
+        <v>15.81184439710531</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.678776763068694</v>
       </c>
       <c r="J13">
-        <v>5.425587436514926</v>
+        <v>6.997573371232995</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.532319926741753</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.264742030229066</v>
       </c>
       <c r="M13">
-        <v>19.21939700799356</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.23113108618377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.2119653789966</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.73790234018274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.79739454848544</v>
+        <v>27.31714236459034</v>
       </c>
       <c r="C14">
-        <v>18.16982209639401</v>
+        <v>18.69870694721393</v>
       </c>
       <c r="D14">
-        <v>7.090641278445255</v>
+        <v>6.749872673345912</v>
       </c>
       <c r="E14">
-        <v>8.925292710856317</v>
+        <v>8.243818073485059</v>
       </c>
       <c r="F14">
-        <v>23.91211107688665</v>
+        <v>15.48931897208266</v>
       </c>
       <c r="G14">
-        <v>2.05757071372125</v>
+        <v>14.85325572204883</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.59638403569284</v>
       </c>
       <c r="J14">
-        <v>5.433611286092988</v>
+        <v>6.878666607242817</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.513077379628299</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.332580931627603</v>
       </c>
       <c r="M14">
-        <v>19.0514541100165</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.18967297704403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.58344366216436</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.38879159126499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.65003879170959</v>
+        <v>27.2034748201338</v>
       </c>
       <c r="C15">
-        <v>18.07538499053694</v>
+        <v>18.60513532275498</v>
       </c>
       <c r="D15">
-        <v>7.066356416404491</v>
+        <v>6.655941973866995</v>
       </c>
       <c r="E15">
-        <v>8.908732714546666</v>
+        <v>8.200364366780279</v>
       </c>
       <c r="F15">
-        <v>23.84988695929008</v>
+        <v>15.30748752721847</v>
       </c>
       <c r="G15">
-        <v>2.05832108087261</v>
+        <v>14.61120664042452</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.805294997642118</v>
       </c>
       <c r="J15">
-        <v>5.43859280917427</v>
+        <v>6.858174424501994</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.539144929820585</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.357240396793521</v>
       </c>
       <c r="M15">
-        <v>18.94795641556811</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.16485649815401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.38161430783551</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.31402953907711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.79144945393185</v>
+        <v>26.36214232511237</v>
       </c>
       <c r="C16">
-        <v>17.52542797178764</v>
+        <v>18.05124069669479</v>
       </c>
       <c r="D16">
-        <v>6.926415303887305</v>
+        <v>6.591158812857027</v>
       </c>
       <c r="E16">
-        <v>8.815244096265234</v>
+        <v>8.201295140900763</v>
       </c>
       <c r="F16">
-        <v>23.50236589253424</v>
+        <v>15.3504470237339</v>
       </c>
       <c r="G16">
-        <v>2.062643136274858</v>
+        <v>14.58632493217852</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.532813447474611</v>
       </c>
       <c r="J16">
-        <v>5.468141456412089</v>
+        <v>6.940836828574327</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.80583820672117</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.33195908950072</v>
       </c>
       <c r="M16">
-        <v>18.34517937043119</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.03135389186125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.95106585601213</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.42127057229924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25202239124213</v>
+        <v>25.76443017146229</v>
       </c>
       <c r="C17">
-        <v>17.18018898528894</v>
+        <v>17.70005259487714</v>
       </c>
       <c r="D17">
-        <v>6.839902211479024</v>
+        <v>6.73277524266601</v>
       </c>
       <c r="E17">
-        <v>8.759148522038901</v>
+        <v>8.317283453499387</v>
       </c>
       <c r="F17">
-        <v>23.29720322064719</v>
+        <v>15.78712963725077</v>
       </c>
       <c r="G17">
-        <v>2.065315216878263</v>
+        <v>15.09196479942475</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.78703810662379</v>
       </c>
       <c r="J17">
-        <v>5.487140729591362</v>
+        <v>7.066681287101098</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.017275768953803</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.26524142980718</v>
       </c>
       <c r="M17">
-        <v>17.96670954496264</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.95706446221935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.96618631516641</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.68847529947993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93705561572761</v>
+        <v>25.32130038572867</v>
       </c>
       <c r="C18">
-        <v>16.97871909007914</v>
+        <v>17.49201098429711</v>
       </c>
       <c r="D18">
-        <v>6.789909745042467</v>
+        <v>7.076366160914851</v>
       </c>
       <c r="E18">
-        <v>8.727345076849288</v>
+        <v>8.684180832848311</v>
       </c>
       <c r="F18">
-        <v>23.18212731984287</v>
+        <v>16.61148703498969</v>
       </c>
       <c r="G18">
-        <v>2.066860098819289</v>
+        <v>16.09660129430687</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.59058317886492</v>
       </c>
       <c r="J18">
-        <v>5.498380863150514</v>
+        <v>7.243930273419743</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.223009650205901</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.22624126289544</v>
       </c>
       <c r="M18">
-        <v>17.74581112441737</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.91706565021513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.37003585082527</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.12160330844463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.82960266181317</v>
+        <v>25.04354369307468</v>
       </c>
       <c r="C19">
-        <v>16.91000636344856</v>
+        <v>17.41869792384861</v>
       </c>
       <c r="D19">
-        <v>6.772944392531718</v>
+        <v>7.565231735097738</v>
       </c>
       <c r="E19">
-        <v>8.71665614204549</v>
+        <v>9.400900024024104</v>
       </c>
       <c r="F19">
-        <v>23.14366521800828</v>
+        <v>17.69377419253101</v>
       </c>
       <c r="G19">
-        <v>2.067384574151466</v>
+        <v>17.41929530009215</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.281694087528933</v>
       </c>
       <c r="J19">
-        <v>5.502239453286408</v>
+        <v>7.452433332714217</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.435533266171488</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.317641593667528</v>
       </c>
       <c r="M19">
-        <v>17.67046505185176</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.90398526674174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.04630323382375</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.66122105152271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.30993132116417</v>
+        <v>25.25174241295117</v>
       </c>
       <c r="C20">
-        <v>17.21723994932056</v>
+        <v>17.72686871787629</v>
       </c>
       <c r="D20">
-        <v>6.849136003662867</v>
+        <v>8.420954749229423</v>
       </c>
       <c r="E20">
-        <v>8.765072241757851</v>
+        <v>10.91353966922675</v>
       </c>
       <c r="F20">
-        <v>23.31873953655914</v>
+        <v>19.44287584350762</v>
       </c>
       <c r="G20">
-        <v>2.065029952824249</v>
+        <v>19.55720053719546</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.418455128959391</v>
       </c>
       <c r="J20">
-        <v>5.485085726068751</v>
+        <v>7.742783066297322</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.653961825339342</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.729745855366811</v>
       </c>
       <c r="M20">
-        <v>18.00733033943111</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.96468858152341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.42491041975312</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.48021303951685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86780644387108</v>
+        <v>26.71044396349343</v>
       </c>
       <c r="C21">
-        <v>18.21495242225669</v>
+        <v>18.73025721196974</v>
       </c>
       <c r="D21">
-        <v>7.10227246949488</v>
+        <v>8.790276615852795</v>
       </c>
       <c r="E21">
-        <v>8.93325864457287</v>
+        <v>11.32593257967664</v>
       </c>
       <c r="F21">
-        <v>23.94211023071544</v>
+        <v>19.98396090736625</v>
       </c>
       <c r="G21">
-        <v>2.057211267033352</v>
+        <v>20.30068652902011</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.689490054724788</v>
       </c>
       <c r="J21">
-        <v>5.431240540039277</v>
+        <v>7.724304311958767</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.305007764932167</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.842689718726201</v>
       </c>
       <c r="M21">
-        <v>19.10091372350514</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.20172947039005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.51163934320915</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.61789082790324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.8447756077306</v>
+        <v>27.63367696669335</v>
       </c>
       <c r="C22">
-        <v>18.8414388469124</v>
+        <v>19.35841217694099</v>
       </c>
       <c r="D22">
-        <v>7.265411590479623</v>
+        <v>8.989609958232188</v>
       </c>
       <c r="E22">
-        <v>9.047298628820894</v>
+        <v>11.51497264785849</v>
       </c>
       <c r="F22">
-        <v>24.37605642119507</v>
+        <v>20.26989141780451</v>
       </c>
       <c r="G22">
-        <v>2.05216384256088</v>
+        <v>20.71226020705529</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.856745334079549</v>
       </c>
       <c r="J22">
-        <v>5.399011549010321</v>
+        <v>7.703176782378375</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.067164688953202</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.890080837741315</v>
       </c>
       <c r="M22">
-        <v>19.78747737285285</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.38233568027994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.1451752587339</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.68248453033221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.32708372449213</v>
+        <v>27.14473204661225</v>
       </c>
       <c r="C23">
-        <v>18.50939894925447</v>
+        <v>19.02567284657859</v>
       </c>
       <c r="D23">
-        <v>7.178561657509672</v>
+        <v>8.883692057362907</v>
       </c>
       <c r="E23">
-        <v>8.986055582182154</v>
+        <v>11.41441254405692</v>
       </c>
       <c r="F23">
-        <v>24.14200234177702</v>
+        <v>20.11623719665645</v>
       </c>
       <c r="G23">
-        <v>2.054852454352486</v>
+        <v>20.49076074109322</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.767775054846229</v>
       </c>
       <c r="J23">
-        <v>5.415932459977738</v>
+        <v>7.713880534501351</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.193298573805246</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.864848095656276</v>
       </c>
       <c r="M23">
-        <v>19.4235988277437</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.28352888182494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.8094464884099</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.64670311812231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28376578616757</v>
+        <v>25.20917604275559</v>
       </c>
       <c r="C24">
-        <v>17.20049851586828</v>
+        <v>17.71010371684255</v>
       </c>
       <c r="D24">
-        <v>6.844962197577448</v>
+        <v>8.472420879392867</v>
       </c>
       <c r="E24">
-        <v>8.76239273699667</v>
+        <v>11.02634281789873</v>
       </c>
       <c r="F24">
-        <v>23.30899401897008</v>
+        <v>19.55738086048691</v>
       </c>
       <c r="G24">
-        <v>2.065158893615592</v>
+        <v>19.6924229948329</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.424158650494719</v>
       </c>
       <c r="J24">
-        <v>5.486013807104277</v>
+        <v>7.766645998555948</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.68811092066311</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.767930566079933</v>
       </c>
       <c r="M24">
-        <v>17.98897599638181</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.96123328809384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.48524685165341</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.53927586708263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.89956405484812</v>
+        <v>22.9411247281864</v>
       </c>
       <c r="C25">
-        <v>15.67780614040041</v>
+        <v>16.17274198280329</v>
       </c>
       <c r="D25">
-        <v>6.476427105844765</v>
+        <v>8.008624941592958</v>
       </c>
       <c r="E25">
-        <v>8.538761055950255</v>
+        <v>10.59322666700839</v>
       </c>
       <c r="F25">
-        <v>22.52200641029815</v>
+        <v>19.00417120103109</v>
       </c>
       <c r="G25">
-        <v>2.076585034827379</v>
+        <v>18.91910565201005</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.038494952022094</v>
       </c>
       <c r="J25">
-        <v>5.573461043205992</v>
+        <v>7.847530691244646</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.25492850099192</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.660399762253643</v>
       </c>
       <c r="M25">
-        <v>16.31845949572245</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.71702254455928</v>
+        <v>16.94512959368586</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.4793455648938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11485574723299</v>
+        <v>21.10617083756243</v>
       </c>
       <c r="C2">
-        <v>14.93928236987674</v>
+        <v>15.08109698850765</v>
       </c>
       <c r="D2">
-        <v>7.651490917740842</v>
+        <v>7.654705105322939</v>
       </c>
       <c r="E2">
-        <v>10.2628216267276</v>
+        <v>10.2367649476827</v>
       </c>
       <c r="F2">
-        <v>18.63936150268305</v>
+        <v>18.55995837800996</v>
       </c>
       <c r="G2">
-        <v>18.4253214890865</v>
+        <v>17.54332815748103</v>
       </c>
       <c r="H2">
-        <v>1.740801045976728</v>
+        <v>1.725267195840435</v>
       </c>
       <c r="J2">
-        <v>7.925651746468633</v>
+        <v>8.489229653857242</v>
       </c>
       <c r="K2">
-        <v>10.69821628498559</v>
+        <v>10.62524958692474</v>
       </c>
       <c r="L2">
-        <v>6.578548763151041</v>
+        <v>9.990937768472888</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.705986458971092</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.561986402310671</v>
       </c>
       <c r="O2">
-        <v>15.71630542713801</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.47897357699299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.765629526477</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.43349298552982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7792880485113</v>
+        <v>19.78704332442296</v>
       </c>
       <c r="C3">
-        <v>14.04053722591616</v>
+        <v>14.08957896903588</v>
       </c>
       <c r="D3">
-        <v>7.400769165132615</v>
+        <v>7.404945055097437</v>
       </c>
       <c r="E3">
-        <v>10.03231963731372</v>
+        <v>10.01877438237713</v>
       </c>
       <c r="F3">
-        <v>18.41833842447664</v>
+        <v>18.36306816174004</v>
       </c>
       <c r="G3">
-        <v>18.13717743706443</v>
+        <v>17.29907855457555</v>
       </c>
       <c r="H3">
-        <v>1.591779846174053</v>
+        <v>1.596838401876899</v>
       </c>
       <c r="J3">
-        <v>7.98920880185555</v>
+        <v>8.521305729830694</v>
       </c>
       <c r="K3">
-        <v>11.01392843965071</v>
+        <v>10.92326604986055</v>
       </c>
       <c r="L3">
-        <v>6.52136205179048</v>
+        <v>10.21946308748555</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.966453267681198</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.511820459932764</v>
       </c>
       <c r="O3">
-        <v>14.82554267572574</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.50370773968314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.86188550646635</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.46864600877549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91094786083077</v>
+        <v>18.92954774971563</v>
       </c>
       <c r="C4">
-        <v>13.45804120153859</v>
+        <v>13.44599577278141</v>
       </c>
       <c r="D4">
-        <v>7.242963342526318</v>
+        <v>7.248149720216762</v>
       </c>
       <c r="E4">
-        <v>9.88776942436262</v>
+        <v>9.882384753162368</v>
       </c>
       <c r="F4">
-        <v>18.2953741262783</v>
+        <v>18.25293987834583</v>
       </c>
       <c r="G4">
-        <v>17.9827226084674</v>
+        <v>17.17215781571083</v>
       </c>
       <c r="H4">
-        <v>1.728996903071998</v>
+        <v>1.727208810862987</v>
       </c>
       <c r="J4">
-        <v>8.033164971310105</v>
+        <v>8.543662797457261</v>
       </c>
       <c r="K4">
-        <v>11.21510158819855</v>
+        <v>11.11220594896996</v>
       </c>
       <c r="L4">
-        <v>6.48538981814132</v>
+        <v>10.36872262309708</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.147647069040764</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.480272098980729</v>
       </c>
       <c r="O4">
-        <v>14.25062482054364</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.53043119359812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.27842987443202</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.49979116796346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54496376238784</v>
+        <v>18.56818935042813</v>
       </c>
       <c r="C5">
-        <v>13.21303002643384</v>
+        <v>13.17505091876971</v>
       </c>
       <c r="D5">
-        <v>7.177756721076473</v>
+        <v>7.183467568105952</v>
       </c>
       <c r="E5">
-        <v>9.828141737595201</v>
+        <v>9.826202408447921</v>
       </c>
       <c r="F5">
-        <v>18.2484340723176</v>
+        <v>18.21072614581042</v>
       </c>
       <c r="G5">
-        <v>17.92533340992194</v>
+        <v>17.12607356127253</v>
       </c>
       <c r="H5">
-        <v>1.78609958999479</v>
+        <v>1.781474528231084</v>
       </c>
       <c r="J5">
-        <v>8.052274368262081</v>
+        <v>8.553425457124535</v>
       </c>
       <c r="K5">
-        <v>11.29889633962881</v>
+        <v>11.19069466309924</v>
       </c>
       <c r="L5">
-        <v>6.470513126144116</v>
+        <v>10.43179543644752</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.226471539781962</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.467226475992373</v>
       </c>
       <c r="O5">
-        <v>14.00942608289227</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.54410394519851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.03361763540964</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.51478583603351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48346066138583</v>
+        <v>18.50746738654269</v>
       </c>
       <c r="C6">
-        <v>13.17188724306376</v>
+        <v>13.12953899809734</v>
       </c>
       <c r="D6">
-        <v>7.166877109081055</v>
+        <v>7.172682060527973</v>
       </c>
       <c r="E6">
-        <v>9.818198117743487</v>
+        <v>9.816838100891706</v>
       </c>
       <c r="F6">
-        <v>18.24082986120965</v>
+        <v>18.20387614016035</v>
       </c>
       <c r="G6">
-        <v>17.91613593388485</v>
+        <v>17.11875654684434</v>
       </c>
       <c r="H6">
-        <v>1.795653547313999</v>
+        <v>1.790554521388495</v>
       </c>
       <c r="J6">
-        <v>8.055518529648083</v>
+        <v>8.555085416974217</v>
       </c>
       <c r="K6">
-        <v>11.31291933902662</v>
+        <v>11.20381783423857</v>
       </c>
       <c r="L6">
-        <v>6.468029668201044</v>
+        <v>10.44240442594855</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.239851690563131</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.465048770743419</v>
       </c>
       <c r="O6">
-        <v>13.96896174338908</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.54653889883306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.99254544419926</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.51741182109385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9060611455351</v>
+        <v>18.92446025516447</v>
       </c>
       <c r="C7">
-        <v>13.45476771593777</v>
+        <v>13.43654967109316</v>
       </c>
       <c r="D7">
-        <v>7.242087485628031</v>
+        <v>7.250210561677233</v>
       </c>
       <c r="E7">
-        <v>9.886968138037991</v>
+        <v>9.882232819323347</v>
       </c>
       <c r="F7">
-        <v>18.29472830027399</v>
+        <v>18.2392007223765</v>
       </c>
       <c r="G7">
-        <v>17.98192630541385</v>
+        <v>17.25652986428937</v>
       </c>
       <c r="H7">
-        <v>1.729762187021293</v>
+        <v>1.728452935665339</v>
       </c>
       <c r="J7">
-        <v>8.033417896900596</v>
+        <v>8.509931345697318</v>
       </c>
       <c r="K7">
-        <v>11.21622435578201</v>
+        <v>11.10958647696858</v>
       </c>
       <c r="L7">
-        <v>6.4851900694553</v>
+        <v>10.36541349334406</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.147687872578127</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.479611187732817</v>
       </c>
       <c r="O7">
-        <v>14.24739974494096</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.53060447852972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.27499900538978</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.49022734902139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66438041512905</v>
+        <v>20.66044822459201</v>
       </c>
       <c r="C8">
-        <v>14.63579503378414</v>
+        <v>14.72855009215156</v>
       </c>
       <c r="D8">
-        <v>7.56588439023185</v>
+        <v>7.578789767958086</v>
       </c>
       <c r="E8">
-        <v>10.18399322149361</v>
+        <v>10.16424632443974</v>
       </c>
       <c r="F8">
-        <v>18.56048901735389</v>
+        <v>18.44687385707356</v>
       </c>
       <c r="G8">
-        <v>18.32125692783797</v>
+        <v>17.73262186566892</v>
       </c>
       <c r="H8">
-        <v>1.669082684479841</v>
+        <v>1.655617860654211</v>
       </c>
       <c r="J8">
-        <v>7.946516009312261</v>
+        <v>8.389125834689917</v>
       </c>
       <c r="K8">
-        <v>10.80553575604371</v>
+        <v>10.714812291937</v>
       </c>
       <c r="L8">
-        <v>6.559008119843561</v>
+        <v>10.05617345198804</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.785085163002132</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.543331051454391</v>
       </c>
       <c r="O8">
-        <v>15.41504317851066</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.48503661915192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.45947262759904</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.41131222924103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72933081846044</v>
+        <v>23.68782682484546</v>
       </c>
       <c r="C9">
-        <v>16.70640919553105</v>
+        <v>17.00564924007445</v>
       </c>
       <c r="D9">
-        <v>8.16741208215811</v>
+        <v>8.181856557930001</v>
       </c>
       <c r="E9">
-        <v>10.740981512849</v>
+        <v>10.69333552710295</v>
       </c>
       <c r="F9">
-        <v>19.18389405793805</v>
+        <v>18.98952627565479</v>
       </c>
       <c r="G9">
-        <v>19.16782211719464</v>
+        <v>18.53696327423036</v>
       </c>
       <c r="H9">
-        <v>2.170486637961232</v>
+        <v>2.131233789038903</v>
       </c>
       <c r="J9">
-        <v>7.817267216531238</v>
+        <v>8.29401470721645</v>
       </c>
       <c r="K9">
-        <v>10.05982318091302</v>
+        <v>10.00133556299669</v>
       </c>
       <c r="L9">
-        <v>6.697030904038051</v>
+        <v>9.536244995330675</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.263579618703179</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.664220167596485</v>
       </c>
       <c r="O9">
-        <v>17.47876765002455</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.49243640029698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.55198877691243</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.37259793463095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.7710002030765</v>
+        <v>25.70420556719954</v>
       </c>
       <c r="C10">
-        <v>18.07636339220256</v>
+        <v>18.47019255905971</v>
       </c>
       <c r="D10">
-        <v>8.513770648349904</v>
+        <v>8.544078089178893</v>
       </c>
       <c r="E10">
-        <v>10.98316206070262</v>
+        <v>10.920483455671</v>
       </c>
       <c r="F10">
-        <v>19.55054589638885</v>
+        <v>19.22680444342706</v>
       </c>
       <c r="G10">
-        <v>19.71816200049521</v>
+        <v>19.5255622959678</v>
       </c>
       <c r="H10">
-        <v>2.507455126662502</v>
+        <v>2.448162263569282</v>
       </c>
       <c r="J10">
-        <v>7.720668910184491</v>
+        <v>8.028676434747574</v>
       </c>
       <c r="K10">
-        <v>9.515069888059884</v>
+        <v>9.458095854586448</v>
       </c>
       <c r="L10">
-        <v>6.744298774111369</v>
+        <v>9.169514958759002</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.967032603278343</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.697977901486738</v>
       </c>
       <c r="O10">
-        <v>18.75586865512254</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.48681055651919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.84372042072949</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.27418955138766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.84268168058324</v>
+        <v>26.77072029264048</v>
       </c>
       <c r="C11">
-        <v>18.66749002112569</v>
+        <v>18.95660599501288</v>
       </c>
       <c r="D11">
-        <v>8.052425501129548</v>
+        <v>8.099140779216778</v>
       </c>
       <c r="E11">
-        <v>9.900413061841942</v>
+        <v>9.828045389047595</v>
       </c>
       <c r="F11">
-        <v>18.3933621142271</v>
+        <v>17.97347891024727</v>
       </c>
       <c r="G11">
-        <v>18.3989234194847</v>
+        <v>19.27858276082506</v>
       </c>
       <c r="H11">
-        <v>3.261619133011656</v>
+        <v>3.20833412771796</v>
       </c>
       <c r="J11">
-        <v>7.425494944583566</v>
+        <v>7.45193580253079</v>
       </c>
       <c r="K11">
-        <v>8.982488309652576</v>
+        <v>8.969740280948489</v>
       </c>
       <c r="L11">
-        <v>6.423393824692643</v>
+        <v>8.890048323185043</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.548487593610673</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.374836474124113</v>
       </c>
       <c r="O11">
-        <v>18.46751263354196</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.83020044469339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.54008928208325</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.5470999588871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.3359507145247</v>
+        <v>27.26529058500853</v>
       </c>
       <c r="C12">
-        <v>18.88949396913987</v>
+        <v>19.08560770022807</v>
       </c>
       <c r="D12">
-        <v>7.594433192709084</v>
+        <v>7.640546569188829</v>
       </c>
       <c r="E12">
-        <v>9.100624573465405</v>
+        <v>9.016870107124237</v>
       </c>
       <c r="F12">
-        <v>17.32238040275612</v>
+        <v>16.89803110968496</v>
       </c>
       <c r="G12">
-        <v>17.13562839156181</v>
+        <v>18.54965111611597</v>
       </c>
       <c r="H12">
-        <v>4.418754449310159</v>
+        <v>4.378196669975557</v>
       </c>
       <c r="J12">
-        <v>7.193684172172718</v>
+        <v>7.16919107674426</v>
       </c>
       <c r="K12">
-        <v>8.676134781244549</v>
+        <v>8.718473332218201</v>
       </c>
       <c r="L12">
-        <v>6.278378428890228</v>
+        <v>8.769231110187292</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.274585638490476</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.232634828198702</v>
       </c>
       <c r="O12">
-        <v>17.95088175306114</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.26610671363423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.00812506075121</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.98307441757658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.43011639379091</v>
+        <v>27.36611741683075</v>
       </c>
       <c r="C13">
-        <v>18.8477280025212</v>
+        <v>18.96321205753153</v>
       </c>
       <c r="D13">
-        <v>7.105589668015891</v>
+        <v>7.132882609090682</v>
       </c>
       <c r="E13">
-        <v>8.509256523377985</v>
+        <v>8.415422149738209</v>
       </c>
       <c r="F13">
-        <v>16.24395884999562</v>
+        <v>15.91280136800484</v>
       </c>
       <c r="G13">
-        <v>15.81184439710531</v>
+        <v>17.17428338957427</v>
       </c>
       <c r="H13">
-        <v>5.678776763068694</v>
+        <v>5.64908688377759</v>
       </c>
       <c r="J13">
-        <v>6.997573371232995</v>
+        <v>7.090788006197307</v>
       </c>
       <c r="K13">
-        <v>8.532319926741753</v>
+        <v>8.631492809119926</v>
       </c>
       <c r="L13">
-        <v>6.264742030229066</v>
+        <v>8.736143830795696</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.122657661946422</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.225211796019383</v>
       </c>
       <c r="O13">
-        <v>17.2119653789966</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.73790234018274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.25283111125314</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.52934831347054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.31714236459034</v>
+        <v>27.26023972394217</v>
       </c>
       <c r="C14">
-        <v>18.69870694721393</v>
+        <v>18.76177819187957</v>
       </c>
       <c r="D14">
-        <v>6.749872673345912</v>
+        <v>6.757037608102573</v>
       </c>
       <c r="E14">
-        <v>8.243818073485059</v>
+        <v>8.146937795508792</v>
       </c>
       <c r="F14">
-        <v>15.48931897208266</v>
+        <v>15.26303087803261</v>
       </c>
       <c r="G14">
-        <v>14.85325572204883</v>
+        <v>15.92036108994882</v>
       </c>
       <c r="H14">
-        <v>6.59638403569284</v>
+        <v>6.572923273028255</v>
       </c>
       <c r="J14">
-        <v>6.878666607242817</v>
+        <v>7.108451991888385</v>
       </c>
       <c r="K14">
-        <v>8.513077379628299</v>
+        <v>8.643187392492099</v>
       </c>
       <c r="L14">
-        <v>6.332580931627603</v>
+        <v>8.744671108702324</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.084712668961739</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.298015802065848</v>
       </c>
       <c r="O14">
-        <v>16.58344366216436</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.38879159126499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.61203403822853</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.26120993209014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.2034748201338</v>
+        <v>27.14946613102346</v>
       </c>
       <c r="C15">
-        <v>18.60513532275498</v>
+        <v>18.6571481551513</v>
       </c>
       <c r="D15">
-        <v>6.655941973866995</v>
+        <v>6.655554731154767</v>
       </c>
       <c r="E15">
-        <v>8.200364366780279</v>
+        <v>8.104629456507483</v>
       </c>
       <c r="F15">
-        <v>15.30748752721847</v>
+        <v>15.12284412827347</v>
       </c>
       <c r="G15">
-        <v>14.61120664042452</v>
+        <v>15.49729258511506</v>
       </c>
       <c r="H15">
-        <v>6.805294997642118</v>
+        <v>6.783564250702096</v>
       </c>
       <c r="J15">
-        <v>6.858174424501994</v>
+        <v>7.144566812337053</v>
       </c>
       <c r="K15">
-        <v>8.539144929820585</v>
+        <v>8.673729219095694</v>
       </c>
       <c r="L15">
-        <v>6.357240396793521</v>
+        <v>8.757677010249939</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.101806888598554</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.324269030925795</v>
       </c>
       <c r="O15">
-        <v>16.38161430783551</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.31402953907711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.40688404090315</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.21785686308511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36214232511237</v>
+        <v>26.3190404569318</v>
       </c>
       <c r="C16">
-        <v>18.05124069669479</v>
+        <v>18.1157258709623</v>
       </c>
       <c r="D16">
-        <v>6.591158812857027</v>
+        <v>6.569262253161545</v>
       </c>
       <c r="E16">
-        <v>8.201295140900763</v>
+        <v>8.119070419547837</v>
       </c>
       <c r="F16">
-        <v>15.3504470237339</v>
+        <v>15.29910238433293</v>
       </c>
       <c r="G16">
-        <v>14.58632493217852</v>
+        <v>14.5860952985357</v>
       </c>
       <c r="H16">
-        <v>6.532813447474611</v>
+        <v>6.515250089426486</v>
       </c>
       <c r="J16">
-        <v>6.940836828574327</v>
+        <v>7.449264305495816</v>
       </c>
       <c r="K16">
-        <v>8.80583820672117</v>
+        <v>8.923574517649469</v>
       </c>
       <c r="L16">
-        <v>6.33195908950072</v>
+        <v>8.864402358769318</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.32356420072026</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.303841448724501</v>
       </c>
       <c r="O16">
-        <v>15.95106585601213</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.42127057229924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.97371640690719</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.42229333505997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.76443017146229</v>
+        <v>25.72569261987466</v>
       </c>
       <c r="C17">
-        <v>17.70005259487714</v>
+        <v>17.79626493851094</v>
       </c>
       <c r="D17">
-        <v>6.73277524266601</v>
+        <v>6.707106123986034</v>
       </c>
       <c r="E17">
-        <v>8.317283453499387</v>
+        <v>8.243457311120105</v>
       </c>
       <c r="F17">
-        <v>15.78712963725077</v>
+        <v>15.76883648097167</v>
       </c>
       <c r="G17">
-        <v>15.09196479942475</v>
+        <v>14.69630929759525</v>
       </c>
       <c r="H17">
-        <v>5.78703810662379</v>
+        <v>5.770037481207489</v>
       </c>
       <c r="J17">
-        <v>7.066681287101098</v>
+        <v>7.665909483109258</v>
       </c>
       <c r="K17">
-        <v>9.017275768953803</v>
+        <v>9.113843804281172</v>
       </c>
       <c r="L17">
-        <v>6.26524142980718</v>
+        <v>8.958383519914912</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.500116892748637</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.238936722399317</v>
       </c>
       <c r="O17">
-        <v>15.96618631516641</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.68847529947993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.99345356556959</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.71164374200914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.32130038572867</v>
+        <v>25.28188559790854</v>
       </c>
       <c r="C18">
-        <v>17.49201098429711</v>
+        <v>17.65009291474681</v>
       </c>
       <c r="D18">
-        <v>7.076366160914851</v>
+        <v>7.05619347673956</v>
       </c>
       <c r="E18">
-        <v>8.684180832848311</v>
+        <v>8.615840202022129</v>
       </c>
       <c r="F18">
-        <v>16.61148703498969</v>
+        <v>16.57097323982198</v>
       </c>
       <c r="G18">
-        <v>16.09660129430687</v>
+        <v>15.49759960926738</v>
       </c>
       <c r="H18">
-        <v>4.59058317886492</v>
+        <v>4.57041002035499</v>
       </c>
       <c r="J18">
-        <v>7.243930273419743</v>
+        <v>7.866289815620521</v>
       </c>
       <c r="K18">
-        <v>9.223009650205901</v>
+        <v>9.291625733299355</v>
       </c>
       <c r="L18">
-        <v>6.22624126289544</v>
+        <v>9.061778259004086</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.667988381368604</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.199273461167368</v>
       </c>
       <c r="O18">
-        <v>16.37003585082527</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.12160330844463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.4091862965391</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.12616003843062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.04354369307468</v>
+        <v>24.99943556041315</v>
       </c>
       <c r="C19">
-        <v>17.41869792384861</v>
+        <v>17.66135337149543</v>
       </c>
       <c r="D19">
-        <v>7.565231735097738</v>
+        <v>7.555841566270423</v>
       </c>
       <c r="E19">
-        <v>9.400900024024104</v>
+        <v>9.336673721162361</v>
       </c>
       <c r="F19">
-        <v>17.69377419253101</v>
+        <v>17.59741986589716</v>
       </c>
       <c r="G19">
-        <v>17.41929530009215</v>
+        <v>16.709053139647</v>
       </c>
       <c r="H19">
-        <v>3.281694087528933</v>
+        <v>3.252386513221067</v>
       </c>
       <c r="J19">
-        <v>7.452433332714217</v>
+        <v>8.059436992673545</v>
       </c>
       <c r="K19">
-        <v>9.435533266171488</v>
+        <v>9.466633614144977</v>
       </c>
       <c r="L19">
-        <v>6.317641593667528</v>
+        <v>9.174797758067829</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.839870445021858</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.287370765723312</v>
       </c>
       <c r="O19">
-        <v>17.04630323382375</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.66122105152271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.10223429713228</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.62235676532472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.25174241295117</v>
+        <v>25.19212963521686</v>
       </c>
       <c r="C20">
-        <v>17.72686871787629</v>
+        <v>18.11254334582835</v>
       </c>
       <c r="D20">
-        <v>8.420954749229423</v>
+        <v>8.437677881917651</v>
       </c>
       <c r="E20">
-        <v>10.91353966922675</v>
+        <v>10.85230945085813</v>
       </c>
       <c r="F20">
-        <v>19.44287584350762</v>
+        <v>19.1977623970072</v>
       </c>
       <c r="G20">
-        <v>19.55720053719546</v>
+        <v>18.9693097813117</v>
       </c>
       <c r="H20">
-        <v>2.418455128959391</v>
+        <v>2.365746443505048</v>
       </c>
       <c r="J20">
-        <v>7.742783066297322</v>
+        <v>8.209631445041159</v>
       </c>
       <c r="K20">
-        <v>9.653961825339342</v>
+        <v>9.610053289207563</v>
       </c>
       <c r="L20">
-        <v>6.729745855366811</v>
+        <v>9.26858924685218</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.048031479513202</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.688339438026976</v>
       </c>
       <c r="O20">
-        <v>18.42491041975312</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.48021303951685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.50962788061156</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.32728738312623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.71044396349343</v>
+        <v>26.62762098482225</v>
       </c>
       <c r="C21">
-        <v>18.73025721196974</v>
+        <v>19.11896117371439</v>
       </c>
       <c r="D21">
-        <v>8.790276615852795</v>
+        <v>8.870971925746295</v>
       </c>
       <c r="E21">
-        <v>11.32593257967664</v>
+        <v>11.26836291046752</v>
       </c>
       <c r="F21">
-        <v>19.98396090736625</v>
+        <v>19.39291597100935</v>
       </c>
       <c r="G21">
-        <v>20.30068652902011</v>
+        <v>21.49935058143028</v>
       </c>
       <c r="H21">
-        <v>2.689490054724788</v>
+        <v>2.614136267102437</v>
       </c>
       <c r="J21">
-        <v>7.724304311958767</v>
+        <v>7.504653964460497</v>
       </c>
       <c r="K21">
-        <v>9.305007764932167</v>
+        <v>9.178422225722542</v>
       </c>
       <c r="L21">
-        <v>6.842689718726201</v>
+        <v>8.993859598915471</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.837055210520607</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.782913297664983</v>
       </c>
       <c r="O21">
-        <v>19.51163934320915</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.61789082790324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.6068220689869</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.19664302695763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.63367696669335</v>
+        <v>27.53662376472978</v>
       </c>
       <c r="C22">
-        <v>19.35841217694099</v>
+        <v>19.73708281699829</v>
       </c>
       <c r="D22">
-        <v>8.989609958232188</v>
+        <v>9.114814613998554</v>
       </c>
       <c r="E22">
-        <v>11.51497264785849</v>
+        <v>11.46191023352701</v>
       </c>
       <c r="F22">
-        <v>20.26989141780451</v>
+        <v>19.4396925150299</v>
       </c>
       <c r="G22">
-        <v>20.71226020705529</v>
+        <v>23.17409628153067</v>
       </c>
       <c r="H22">
-        <v>2.856745334079549</v>
+        <v>2.767148299238762</v>
       </c>
       <c r="J22">
-        <v>7.703176782378375</v>
+        <v>7.079391137233547</v>
       </c>
       <c r="K22">
-        <v>9.067164688953202</v>
+        <v>8.881673673915913</v>
       </c>
       <c r="L22">
-        <v>6.890080837741315</v>
+        <v>8.81982770988326</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.698271788700277</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.818742459888141</v>
       </c>
       <c r="O22">
-        <v>20.1451752587339</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.68248453033221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.2450504769688</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.07161082603198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.14473204661225</v>
+        <v>27.05558913001997</v>
       </c>
       <c r="C23">
-        <v>19.02567284657859</v>
+        <v>19.42102503783939</v>
       </c>
       <c r="D23">
-        <v>8.883692057362907</v>
+        <v>8.978257715821382</v>
       </c>
       <c r="E23">
-        <v>11.41441254405692</v>
+        <v>11.35682356058921</v>
       </c>
       <c r="F23">
-        <v>20.11623719665645</v>
+        <v>19.44591630018292</v>
       </c>
       <c r="G23">
-        <v>20.49076074109322</v>
+        <v>22.07498662666464</v>
       </c>
       <c r="H23">
-        <v>2.767775054846229</v>
+        <v>2.686564124782608</v>
       </c>
       <c r="J23">
-        <v>7.713880534501351</v>
+        <v>7.358893162247629</v>
       </c>
       <c r="K23">
-        <v>9.193298573805246</v>
+        <v>9.048920864263449</v>
       </c>
       <c r="L23">
-        <v>6.864848095656276</v>
+        <v>8.915525964799201</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.782183897307192</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.800558582564033</v>
       </c>
       <c r="O23">
-        <v>19.8094464884099</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.64670311812231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.90733434571533</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.16295386433249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.20917604275559</v>
+        <v>25.14920860403719</v>
       </c>
       <c r="C24">
-        <v>17.71010371684255</v>
+        <v>18.10427113138534</v>
       </c>
       <c r="D24">
-        <v>8.472420879392867</v>
+        <v>8.489925131718842</v>
       </c>
       <c r="E24">
-        <v>11.02634281789873</v>
+        <v>10.9656644389265</v>
       </c>
       <c r="F24">
-        <v>19.55738086048691</v>
+        <v>19.3083109115249</v>
       </c>
       <c r="G24">
-        <v>19.6924229948329</v>
+        <v>19.08086569975475</v>
       </c>
       <c r="H24">
-        <v>2.424158650494719</v>
+        <v>2.371410106309926</v>
       </c>
       <c r="J24">
-        <v>7.766645998555948</v>
+        <v>8.235990676745377</v>
       </c>
       <c r="K24">
-        <v>9.68811092066311</v>
+        <v>9.638779671184913</v>
       </c>
       <c r="L24">
-        <v>6.767930566079933</v>
+        <v>9.286918936114962</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.074873383378379</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.726156958140042</v>
       </c>
       <c r="O24">
-        <v>18.48524685165341</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.53927586708263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.57160125265587</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.38307186171748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9411247281864</v>
+        <v>22.909594560748</v>
       </c>
       <c r="C25">
-        <v>16.17274198280329</v>
+        <v>16.42657336162347</v>
       </c>
       <c r="D25">
-        <v>8.008624941592958</v>
+        <v>8.018505494943549</v>
       </c>
       <c r="E25">
-        <v>10.59322666700839</v>
+        <v>10.55179640491846</v>
       </c>
       <c r="F25">
-        <v>19.00417120103109</v>
+        <v>18.85111654962871</v>
       </c>
       <c r="G25">
-        <v>18.91910565201005</v>
+        <v>18.18324039230086</v>
       </c>
       <c r="H25">
-        <v>2.038494952022094</v>
+        <v>2.006700578154073</v>
       </c>
       <c r="J25">
-        <v>7.847530691244646</v>
+        <v>8.364119739324725</v>
       </c>
       <c r="K25">
-        <v>10.25492850099192</v>
+        <v>10.19430286682701</v>
       </c>
       <c r="L25">
-        <v>6.660399762253643</v>
+        <v>9.67325916262107</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.386068458722071</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.63272846480932</v>
       </c>
       <c r="O25">
-        <v>16.94512959368586</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.4793455648938</v>
+        <v>17.01134901689521</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.38754985895877</v>
       </c>
     </row>
   </sheetData>
